--- a/book_loan_requests_backup.xlsx
+++ b/book_loan_requests_backup.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,50 +456,112 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Return_Date</t>
+          <t>Book_ID</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Book_ID</t>
+          <t>Quantity</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Quantity</t>
+          <t>Return_date</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>sdf2345</t>
+          <t>TES1234</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>sdf2345</t>
+          <t>KHA2466</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2023-12-12</t>
+          <t>9/9/2024</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2023-12-30</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>sdf2345</t>
-        </is>
-      </c>
-      <c r="G2" t="n">
+          <t>10/9/2024</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>BOK9876</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>2</v>
+      </c>
+      <c r="G2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>SDI1234</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>KHA3422</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>6/6/2023</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6/6/2024</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>BOK8765</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
         <v>1</v>
       </c>
+      <c r="G3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>BLR9876</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>KHA8764</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>9/10/2024</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>10/10/2024</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>BOK8753</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>2</v>
+      </c>
+      <c r="G4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
